--- a/Outputs/Fish/Total/FINAL_Fish_metrics_year.xlsx
+++ b/Outputs/Fish/Total/FINAL_Fish_metrics_year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Fish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Fish\Total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33B93B29-5EBC-4DCB-9865-BC2C647D987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95D657C-C550-49DE-8D9B-FB832D0DFDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -22,6 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
+    <t>2017 post</t>
+  </si>
+  <si>
+    <t>2017 pre</t>
+  </si>
+  <si>
     <t>Mean Fish abundance</t>
   </si>
   <si>
@@ -37,115 +43,109 @@
     <t>Mean Family richness</t>
   </si>
   <si>
-    <t>1008,714 ± 391,617</t>
-  </si>
-  <si>
-    <t>419,857 ± 95,272</t>
-  </si>
-  <si>
-    <t>346,857 ± 221,573</t>
-  </si>
-  <si>
-    <t>519,571 ± 215,589</t>
-  </si>
-  <si>
-    <t>560,714 ± 111,454</t>
-  </si>
-  <si>
-    <t>483,833 ± 230,846</t>
-  </si>
-  <si>
-    <t>395,429 ± 205,98</t>
-  </si>
-  <si>
-    <t>31,143 ± 3,671</t>
-  </si>
-  <si>
-    <t>31 ± 3,559</t>
-  </si>
-  <si>
-    <t>29,429 ± 8,715</t>
-  </si>
-  <si>
-    <t>32,857 ± 3,237</t>
-  </si>
-  <si>
-    <t>37,571 ± 5,287</t>
-  </si>
-  <si>
-    <t>31 ± 8,149</t>
-  </si>
-  <si>
-    <t>30,857 ± 6,619</t>
-  </si>
-  <si>
-    <t>3,362 ± 1,305</t>
-  </si>
-  <si>
-    <t>1,4 ± 0,318</t>
-  </si>
-  <si>
-    <t>1,156 ± 0,739</t>
-  </si>
-  <si>
-    <t>1,732 ± 0,719</t>
-  </si>
-  <si>
-    <t>1,869 ± 0,372</t>
-  </si>
-  <si>
-    <t>1,613 ± 0,769</t>
-  </si>
-  <si>
-    <t>1,318 ± 0,687</t>
-  </si>
-  <si>
-    <t>22,541 ± 6,667</t>
-  </si>
-  <si>
-    <t>24,946 ± 8,59</t>
-  </si>
-  <si>
-    <t>71,256 ± 53,062</t>
-  </si>
-  <si>
-    <t>98,161 ± 119,217</t>
-  </si>
-  <si>
-    <t>90,209 ± 36,809</t>
-  </si>
-  <si>
-    <t>49,053 ± 37,615</t>
-  </si>
-  <si>
-    <t>32,994 ± 25,842</t>
-  </si>
-  <si>
-    <t>15,571 ± 2,699</t>
-  </si>
-  <si>
-    <t>14,857 ± 2,116</t>
-  </si>
-  <si>
-    <t>14,286 ± 2,36</t>
-  </si>
-  <si>
-    <t>15,143 ± 1,345</t>
-  </si>
-  <si>
-    <t>17 ± 2,16</t>
-  </si>
-  <si>
-    <t>16,167 ± 2,927</t>
-  </si>
-  <si>
-    <t>14,571 ± 2,149</t>
-  </si>
-  <si>
-    <t>2017 before Irma</t>
-  </si>
-  <si>
-    <t>2017 after Irma</t>
+    <t>1008.714 ± 391.617</t>
+  </si>
+  <si>
+    <t>346.857 ± 221.573</t>
+  </si>
+  <si>
+    <t>419.857 ± 95.272</t>
+  </si>
+  <si>
+    <t>519.571 ± 215.589</t>
+  </si>
+  <si>
+    <t>560.714 ± 111.454</t>
+  </si>
+  <si>
+    <t>483.833 ± 230.846</t>
+  </si>
+  <si>
+    <t>395.429 ± 205.98</t>
+  </si>
+  <si>
+    <t>31.143 ± 3.671</t>
+  </si>
+  <si>
+    <t>29.429 ± 8.715</t>
+  </si>
+  <si>
+    <t>31 ± 3.559</t>
+  </si>
+  <si>
+    <t>32.857 ± 3.237</t>
+  </si>
+  <si>
+    <t>37.571 ± 5.287</t>
+  </si>
+  <si>
+    <t>31 ± 8.149</t>
+  </si>
+  <si>
+    <t>30.857 ± 6.619</t>
+  </si>
+  <si>
+    <t>3.362 ± 1.305</t>
+  </si>
+  <si>
+    <t>1.156 ± 0.739</t>
+  </si>
+  <si>
+    <t>1.4 ± 0.318</t>
+  </si>
+  <si>
+    <t>1.732 ± 0.719</t>
+  </si>
+  <si>
+    <t>1.869 ± 0.372</t>
+  </si>
+  <si>
+    <t>1.613 ± 0.769</t>
+  </si>
+  <si>
+    <t>1.318 ± 0.687</t>
+  </si>
+  <si>
+    <t>7513.545 ± 2222.253</t>
+  </si>
+  <si>
+    <t>23751.84 ± 17687.279</t>
+  </si>
+  <si>
+    <t>8315.212 ± 2863.498</t>
+  </si>
+  <si>
+    <t>32720.401 ± 39738.875</t>
+  </si>
+  <si>
+    <t>30069.537 ± 12269.547</t>
+  </si>
+  <si>
+    <t>16351.12 ± 12538.221</t>
+  </si>
+  <si>
+    <t>10997.863 ± 8613.929</t>
+  </si>
+  <si>
+    <t>15.571 ± 2.699</t>
+  </si>
+  <si>
+    <t>14.286 ± 2.36</t>
+  </si>
+  <si>
+    <t>14.857 ± 2.116</t>
+  </si>
+  <si>
+    <t>15.143 ± 1.345</t>
+  </si>
+  <si>
+    <t>17 ± 2.16</t>
+  </si>
+  <si>
+    <t>16.167 ± 2.927</t>
+  </si>
+  <si>
+    <t>14.571 ± 2.149</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,10 +652,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1014,169 +1014,169 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>2016</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
         <v>2018</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>2019</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>2020</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>2023</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
